--- a/src/main/resources/dataSheets/testData_Checker.xlsx
+++ b/src/main/resources/dataSheets/testData_Checker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="19" r:id="rId1"/>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataSheets/testData_Checker.xlsx
+++ b/src/main/resources/dataSheets/testData_Checker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>deviceName</t>
   </si>
@@ -181,9 +181,6 @@
     <t>au.gov.nsw.onegov.LicenceChecker.uat</t>
   </si>
   <si>
-    <t>au.gov.nsw.onegov.app.checker.uat</t>
-  </si>
-  <si>
     <t>2222</t>
   </si>
   <si>
@@ -196,10 +193,19 @@
     <t>UAT Checker</t>
   </si>
   <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>iPhone-6</t>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Galaxy Note5</t>
+  </si>
+  <si>
+    <t>au.gov.nsw.onegov.app.checker.psm</t>
+  </si>
+  <si>
+    <t>windTunnelPersona</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,9 +560,10 @@
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="36.7109375" customWidth="1"/>
     <col min="13" max="13" width="39.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,13 +603,16 @@
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>48</v>
@@ -611,7 +621,10 @@
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>35</v>
@@ -711,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>46</v>
@@ -730,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -830,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
